--- a/biology/Zoologie/Euthyneura_(mollusque)/Euthyneura_(mollusque).xlsx
+++ b/biology/Zoologie/Euthyneura_(mollusque)/Euthyneura_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euthyneura sont une infra-classe de mollusques de la sous-classe des Heterobranchia.
 Ce groupe remplace en grande partie les anciens taxons des « opisthobranches » et « pulmonés ». 
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vaste groupe de mollusques comprend quasiment tous les hétérobranches contemporains (mis à part 8 clades qualifiés d'« hétérobranches inférieurs »), et constitue le groupe de gastéropodes (et sans doute de mollusques) le plus diversifié. 
-La principale caractéristique qui le définit est appelée « Euthyneurie » : c'est le fait que les organes internes des gastéropodes, normalement torsadés pour pouvoir se loger dans la coquille (phénomène de « streptoneurie ») se sont secondairement redressés dans ce groupe, et rapprochés de la tête[1]. 
+La principale caractéristique qui le définit est appelée « Euthyneurie » : c'est le fait que les organes internes des gastéropodes, normalement torsadés pour pouvoir se loger dans la coquille (phénomène de « streptoneurie ») se sont secondairement redressés dans ce groupe, et rapprochés de la tête. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2019) :
 subterclasse des Acteonimorpha
 super-famille des Acteonoidea d'Orbigny, 1842
 super-famille des Rissoelloidea Gray, 1850
@@ -587,7 +603,7 @@
 			Flabellinopsis iodinea, un Nudibranchia
 			Berthella martensi, un Pleurobranchida
 			Aplysia californica, un Aplysiida
-			Divers Cephalaspidea[3]
+			Divers Cephalaspidea
 			Divers Stylommatophora
 			Leidyula floridana, un Systellommatophora
 			Acroloxus lacustris, un Hygrophila
